--- a/data/processed/distributions.xlsx
+++ b/data/processed/distributions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="nComps1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="nComps2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="nComps3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="nComps4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="nComps5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nComps1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nComps2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nComps3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nComps4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nComps5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,9 +438,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chain_length</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>chain_length</t>
+          <t>original_population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -450,476 +455,476 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>3.492084502</v>
       </c>
       <c r="B2" t="n">
-        <v>3.492084502</v>
+        <v>0.016109397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005889208058958732</v>
+        <v>0.005382098434712045</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>3.587301348</v>
       </c>
       <c r="B3" t="n">
-        <v>3.587301348</v>
+        <v>0.025128829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01128428087081725</v>
+        <v>0.0104559540380956</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>3.685131625</v>
       </c>
       <c r="B4" t="n">
-        <v>3.685131625</v>
+        <v>0.037238333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02096717351519888</v>
+        <v>0.01968406316177824</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3.785673142</v>
       </c>
       <c r="B5" t="n">
-        <v>3.785673142</v>
+        <v>0.056916278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03765105623332585</v>
+        <v>0.0357843849921677</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>3.889000831</v>
       </c>
       <c r="B6" t="n">
-        <v>3.889000831</v>
+        <v>0.08392978800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06509115154392521</v>
+        <v>0.06257468057595404</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>3.98892895</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98892895</v>
+        <v>0.126546527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1048938006585352</v>
+        <v>0.1018388048356952</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>4.083892277</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083892277</v>
+        <v>0.170822731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1573990268557159</v>
+        <v>0.1540899517600824</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>4.16354995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16354995</v>
+        <v>0.220039718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2134540428291083</v>
+        <v>0.2102588741734671</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>4.222406411</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222406411</v>
+        <v>0.263767489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2617875290711913</v>
+        <v>0.2589241271371794</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>4.280997339</v>
       </c>
       <c r="B11" t="n">
-        <v>4.280997339</v>
+        <v>0.312304118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3151407531789237</v>
+        <v>0.3128389777752296</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>4.339248645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.339248645</v>
+        <v>0.359522658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3723815623398098</v>
+        <v>0.3708659355601977</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>4.386711948</v>
       </c>
       <c r="B13" t="n">
-        <v>4.386711948</v>
+        <v>0.406475922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4211545462563124</v>
+        <v>0.4204313568883109</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>4.439983825</v>
       </c>
       <c r="B14" t="n">
-        <v>4.439983825</v>
+        <v>0.454036972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4769141829483008</v>
+        <v>0.4772097036853508</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>4.484384749</v>
       </c>
       <c r="B15" t="n">
-        <v>4.484384749</v>
+        <v>0.5005422470000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5231198647283887</v>
+        <v>0.5243335062889205</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>4.536891713</v>
       </c>
       <c r="B16" t="n">
-        <v>4.536891713</v>
+        <v>0.5553167020000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5759815762446123</v>
+        <v>0.5783079152838295</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>4.578780171</v>
       </c>
       <c r="B17" t="n">
-        <v>4.578780171</v>
+        <v>0.597906605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6156630217207368</v>
+        <v>0.6188536049629868</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>4.610049951</v>
       </c>
       <c r="B18" t="n">
-        <v>4.610049951</v>
+        <v>0.647781589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6432599921985268</v>
+        <v>0.6470575721959742</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>4.656787657</v>
       </c>
       <c r="B19" t="n">
-        <v>4.656787657</v>
+        <v>0.694231884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6804187127836107</v>
+        <v>0.6850253714034036</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>4.710202477</v>
       </c>
       <c r="B20" t="n">
-        <v>4.710202477</v>
+        <v>0.740568734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7156041154374299</v>
+        <v>0.7209352959627284</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>4.802088409</v>
       </c>
       <c r="B21" t="n">
-        <v>4.802088409</v>
+        <v>0.791422221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7540877829633822</v>
+        <v>0.7600007767964567</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>4.932954832</v>
       </c>
       <c r="B22" t="n">
-        <v>4.932954832</v>
+        <v>0.7910997789999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7537884025485897</v>
+        <v>0.7588385786551193</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>5.029738645</v>
       </c>
       <c r="B23" t="n">
-        <v>5.029738645</v>
+        <v>0.74017062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7120377295286147</v>
+        <v>0.7152953267909941</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>5.082683125</v>
       </c>
       <c r="B24" t="n">
-        <v>5.082683125</v>
+        <v>0.691887178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6762511495521973</v>
+        <v>0.6782491837745919</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>5.128429707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.128429707</v>
+        <v>0.644800888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6393121775946486</v>
+        <v>0.6401400626244278</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>5.177876777</v>
       </c>
       <c r="B26" t="n">
-        <v>5.177876777</v>
+        <v>0.585847258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5944085855610817</v>
+        <v>0.593952109678085</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>5.221338501</v>
       </c>
       <c r="B27" t="n">
-        <v>5.221338501</v>
+        <v>0.535096745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5517897939627828</v>
+        <v>0.5502389219089021</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>5.262430596</v>
       </c>
       <c r="B28" t="n">
-        <v>5.262430596</v>
+        <v>0.489463842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5097316960355346</v>
+        <v>0.5072145822661083</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>5.305150301</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305150301</v>
+        <v>0.432090585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4650987225423511</v>
+        <v>0.4616799225386556</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>5.350427991</v>
       </c>
       <c r="B30" t="n">
-        <v>5.350427991</v>
+        <v>0.381468019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4177473834920699</v>
+        <v>0.4135157910510415</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>5.395795165</v>
       </c>
       <c r="B31" t="n">
-        <v>5.395795165</v>
+        <v>0.336995572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3711890868833982</v>
+        <v>0.3663113296567677</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>5.449445848</v>
       </c>
       <c r="B32" t="n">
-        <v>5.449445848</v>
+        <v>0.285141872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3183981979194184</v>
+        <v>0.3129878435342876</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>5.52471583</v>
       </c>
       <c r="B33" t="n">
-        <v>5.52471583</v>
+        <v>0.230115719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2504124180541621</v>
+        <v>0.2446731385602725</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>5.619792562</v>
       </c>
       <c r="B34" t="n">
-        <v>5.619792562</v>
+        <v>0.182847422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.177335010186498</v>
+        <v>0.1717910078942065</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>5.754461082</v>
       </c>
       <c r="B35" t="n">
-        <v>5.754461082</v>
+        <v>0.153828142</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1004516434626219</v>
+        <v>0.09596441182267294</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>5.911352412</v>
       </c>
       <c r="B36" t="n">
-        <v>5.911352412</v>
+        <v>0.161441366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04605477277019283</v>
+        <v>0.04317445929237484</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>6.072543295</v>
       </c>
       <c r="B37" t="n">
-        <v>6.072543295</v>
+        <v>0.171454995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01811427295705232</v>
+        <v>0.01660578207079878</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>6.238002167</v>
       </c>
       <c r="B38" t="n">
-        <v>6.238002167</v>
+        <v>0.167952912</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006048479180874077</v>
+        <v>0.005402013367887799</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>6.407821735</v>
       </c>
       <c r="B39" t="n">
-        <v>6.407821735</v>
+        <v>0.149206467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001694715850941545</v>
+        <v>0.001468751386911883</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>6.582141818</v>
       </c>
       <c r="B40" t="n">
-        <v>6.582141818</v>
+        <v>0.118135556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003934344665386461</v>
+        <v>0.0003294673818126459</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>6.761235438</v>
       </c>
       <c r="B41" t="n">
-        <v>6.761235438</v>
+        <v>0.090127848</v>
       </c>
       <c r="C41" t="n">
-        <v>7.456883457241483e-05</v>
+        <v>6.006028894946085e-05</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>6.945167908</v>
       </c>
       <c r="B42" t="n">
-        <v>6.945167908</v>
+        <v>0.058868846</v>
       </c>
       <c r="C42" t="n">
-        <v>1.137933549225226e-05</v>
+        <v>8.772077898849982e-06</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>7.134083222</v>
       </c>
       <c r="B43" t="n">
-        <v>7.134083222</v>
+        <v>0.025675189</v>
       </c>
       <c r="C43" t="n">
-        <v>1.376748480065127e-06</v>
+        <v>1.010438918119815e-06</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>7.289755403</v>
       </c>
       <c r="B44" t="n">
-        <v>7.289755403</v>
+        <v>0.006215673</v>
       </c>
       <c r="C44" t="n">
-        <v>2.104082058908011e-07</v>
+        <v>1.478405873638726e-07</v>
       </c>
     </row>
   </sheetData>
@@ -942,9 +947,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chain_length</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>chain_length</t>
+          <t>original_population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -959,605 +969,605 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>3.492084502</v>
       </c>
       <c r="B2" t="n">
-        <v>3.492084502</v>
+        <v>0.016109397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00370157381785395</v>
+        <v>0.003759997338938944</v>
       </c>
       <c r="D2" t="n">
-        <v>4.227832340369362e-12</v>
+        <v>4.079173349876994e-12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>3.587301348</v>
       </c>
       <c r="B3" t="n">
-        <v>3.587301348</v>
+        <v>0.025128829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007607078796023015</v>
+        <v>0.007716079706255381</v>
       </c>
       <c r="D3" t="n">
-        <v>2.177115486268152e-11</v>
+        <v>2.102798705126214e-11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>3.685131625</v>
       </c>
       <c r="B4" t="n">
-        <v>3.685131625</v>
+        <v>0.037238333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01510379566831352</v>
+        <v>0.01529877798058577</v>
       </c>
       <c r="D4" t="n">
-        <v>1.105200090580468e-10</v>
+        <v>1.068630684723928e-10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3.785673142</v>
       </c>
       <c r="B5" t="n">
-        <v>3.785673142</v>
+        <v>0.056916278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02886286735776952</v>
+        <v>0.02919564850706593</v>
       </c>
       <c r="D5" t="n">
-        <v>5.512782705997626e-10</v>
+        <v>5.336259022027862e-10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>3.889000831</v>
       </c>
       <c r="B6" t="n">
-        <v>3.889000831</v>
+        <v>0.08392978800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05285906792663734</v>
+        <v>0.05339795598913813</v>
       </c>
       <c r="D6" t="n">
-        <v>2.69110718977788e-09</v>
+        <v>2.607865161127536e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>3.98892895</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98892895</v>
+        <v>0.126546527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08952145827579464</v>
+        <v>0.09032568252336214</v>
       </c>
       <c r="D7" t="n">
-        <v>1.169915265246845e-08</v>
+        <v>1.134948827393985e-08</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>4.083892277</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083892277</v>
+        <v>0.170822731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1400518630293354</v>
+        <v>0.1411589729756675</v>
       </c>
       <c r="D8" t="n">
-        <v>4.461121240869785e-08</v>
+        <v>4.3321797423621e-08</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>4.16354995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16354995</v>
+        <v>0.220039718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1958752662493708</v>
+        <v>0.1972570745163982</v>
       </c>
       <c r="D9" t="n">
-        <v>1.312460965904806e-07</v>
+        <v>1.275602739271374e-07</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>4.222406411</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222406411</v>
+        <v>0.263767489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2451658927800586</v>
+        <v>0.2467491458166463</v>
       </c>
       <c r="D10" t="n">
-        <v>2.839486051817244e-07</v>
+        <v>2.7614547400291e-07</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>4.280997339</v>
       </c>
       <c r="B11" t="n">
-        <v>4.280997339</v>
+        <v>0.312304118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3005522893526672</v>
+        <v>0.3023227420116263</v>
       </c>
       <c r="D11" t="n">
-        <v>5.991039833533141e-07</v>
+        <v>5.829977306897408e-07</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>4.339248645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.339248645</v>
+        <v>0.359522658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3608945214568245</v>
+        <v>0.3628264370628953</v>
       </c>
       <c r="D12" t="n">
-        <v>1.231994241572749e-06</v>
+        <v>1.199600981782619e-06</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>4.386711948</v>
       </c>
       <c r="B13" t="n">
-        <v>4.386711948</v>
+        <v>0.406475922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4129220319216963</v>
+        <v>0.41495962849957</v>
       </c>
       <c r="D13" t="n">
-        <v>2.182176995284871e-06</v>
+        <v>2.125845628738659e-06</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>4.439983825</v>
       </c>
       <c r="B14" t="n">
-        <v>4.439983825</v>
+        <v>0.454036972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4729573949505104</v>
+        <v>0.4750788735933086</v>
       </c>
       <c r="D14" t="n">
-        <v>4.076073755059386e-06</v>
+        <v>3.973035127979516e-06</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>4.484384749</v>
       </c>
       <c r="B15" t="n">
-        <v>4.484384749</v>
+        <v>0.5005422470000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5230595398975926</v>
+        <v>0.5252187630027703</v>
       </c>
       <c r="D15" t="n">
-        <v>6.768574626642596e-06</v>
+        <v>6.600480558021204e-06</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>4.536891713</v>
       </c>
       <c r="B16" t="n">
-        <v>4.536891713</v>
+        <v>0.5553167020000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5806557603912488</v>
+        <v>0.5828186642786266</v>
       </c>
       <c r="D16" t="n">
-        <v>1.213467531056038e-05</v>
+        <v>1.183966785746782e-05</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>4.578780171</v>
       </c>
       <c r="B17" t="n">
-        <v>4.578780171</v>
+        <v>0.597906605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.623995006892032</v>
+        <v>0.6261281757398498</v>
       </c>
       <c r="D17" t="n">
-        <v>1.90940600505784e-05</v>
+        <v>1.863780239820685e-05</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>4.610049951</v>
       </c>
       <c r="B18" t="n">
-        <v>4.610049951</v>
+        <v>0.647781589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6541328288805034</v>
+        <v>0.6562251861041994</v>
       </c>
       <c r="D18" t="n">
-        <v>2.659158017947014e-05</v>
+        <v>2.596439612494945e-05</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>4.656787657</v>
       </c>
       <c r="B19" t="n">
-        <v>4.656787657</v>
+        <v>0.694231884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6946044855708238</v>
+        <v>0.6966077482369814</v>
       </c>
       <c r="D19" t="n">
-        <v>4.312963401963481e-05</v>
+        <v>4.213226791345797e-05</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>4.710202477</v>
       </c>
       <c r="B20" t="n">
-        <v>4.710202477</v>
+        <v>0.740568734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7325937468348419</v>
+        <v>0.7344582031551465</v>
       </c>
       <c r="D20" t="n">
-        <v>7.370926421117033e-05</v>
+        <v>7.204341192926911e-05</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>4.802088409</v>
       </c>
       <c r="B21" t="n">
-        <v>4.802088409</v>
+        <v>0.791422221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7726744781752242</v>
+        <v>0.7742299203144192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001777064876192242</v>
+        <v>0.0001738495964182045</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>4.932954832</v>
       </c>
       <c r="B22" t="n">
-        <v>4.932954832</v>
+        <v>0.7910997789999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.766644870612053</v>
+        <v>0.7676930280331347</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0005679177973219444</v>
+        <v>0.0005563099534028514</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>5.029738645</v>
       </c>
       <c r="B23" t="n">
-        <v>5.029738645</v>
+        <v>0.74017062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7154910515985032</v>
+        <v>0.7161878505196939</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00125148575625155</v>
+        <v>0.0012270646364754</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>5.082683125</v>
       </c>
       <c r="B24" t="n">
-        <v>5.082683125</v>
+        <v>0.691887178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.673462786727469</v>
+        <v>0.6739941597752974</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880756656887047</v>
+        <v>0.001845001979311463</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>5.128429707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.128429707</v>
+        <v>0.644800888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6309102277449318</v>
+        <v>0.6313181343976855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002636544937533345</v>
+        <v>0.00258756263555775</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>5.177876777</v>
       </c>
       <c r="B26" t="n">
-        <v>5.177876777</v>
+        <v>0.585847258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5800416207611712</v>
+        <v>0.5803377353613473</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003742736739574585</v>
+        <v>0.003674945702580572</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>5.221338501</v>
       </c>
       <c r="B27" t="n">
-        <v>5.221338501</v>
+        <v>0.535096745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5325186058127112</v>
+        <v>0.5327349967709252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005028313195976367</v>
+        <v>0.004939285533775542</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>5.262430596</v>
       </c>
       <c r="B28" t="n">
-        <v>5.262430596</v>
+        <v>0.489463842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4862974706252301</v>
+        <v>0.486453639396407</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006575492870196483</v>
+        <v>0.006461594924337941</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>5.305150301</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305150301</v>
+        <v>0.432090585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4379683860211712</v>
+        <v>0.4380762165309205</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008593480633602497</v>
+        <v>0.008448042361853987</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>5.350427991</v>
       </c>
       <c r="B30" t="n">
-        <v>5.350427991</v>
+        <v>0.381468019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3875192303908125</v>
+        <v>0.3875897523111232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01127041324884649</v>
+        <v>0.0110843964371276</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>5.395795165</v>
       </c>
       <c r="B31" t="n">
-        <v>5.395795165</v>
+        <v>0.336995572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3387746416408238</v>
+        <v>0.3388198050518185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01459951882657037</v>
+        <v>0.01436466407425845</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>5.449445848</v>
       </c>
       <c r="B32" t="n">
-        <v>5.449445848</v>
+        <v>0.285141872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2846061981717544</v>
+        <v>0.284633523995055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01949932175874565</v>
+        <v>0.01919524942176162</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>5.52471583</v>
       </c>
       <c r="B33" t="n">
-        <v>5.52471583</v>
+        <v>0.230115719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2167637851474443</v>
+        <v>0.2167812722315784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02838701191434431</v>
+        <v>0.02796383745522918</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>5.619792562</v>
       </c>
       <c r="B34" t="n">
-        <v>5.619792562</v>
+        <v>0.182847422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1466948632591339</v>
+        <v>0.1467129123719013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04335751767385319</v>
+        <v>0.04274847080003507</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>5.754461082</v>
       </c>
       <c r="B35" t="n">
-        <v>5.754461082</v>
+        <v>0.153828142</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07720586040561318</v>
+        <v>0.07722910009269658</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07168674824196497</v>
+        <v>0.07076612721562518</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>5.911352412</v>
       </c>
       <c r="B36" t="n">
-        <v>5.911352412</v>
+        <v>0.161441366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03205124811873852</v>
+        <v>0.03207313441063402</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1115589125602431</v>
+        <v>0.11028057023839</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>6.072543295</v>
       </c>
       <c r="B37" t="n">
-        <v>6.072543295</v>
+        <v>0.171454995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01121096525641107</v>
+        <v>0.01122521413064108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1496073463056601</v>
+        <v>0.1481022355204942</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>6.238002167</v>
       </c>
       <c r="B38" t="n">
-        <v>6.238002167</v>
+        <v>0.167952912</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003265637566058541</v>
+        <v>0.003272434833962944</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1706528574136525</v>
+        <v>0.1691768768385414</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>6.407821735</v>
       </c>
       <c r="B39" t="n">
-        <v>6.407821735</v>
+        <v>0.149206467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0007819481756427646</v>
+        <v>0.0007843969663080571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.163372741501715</v>
+        <v>0.1621922123467523</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>6.582141818</v>
       </c>
       <c r="B40" t="n">
-        <v>6.582141818</v>
+        <v>0.118135556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001517508257018131</v>
+        <v>0.0001524246734058368</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1294138883248566</v>
+        <v>0.1286642880114919</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>6.761235438</v>
       </c>
       <c r="B41" t="n">
-        <v>6.761235438</v>
+        <v>0.090127848</v>
       </c>
       <c r="C41" t="n">
-        <v>2.347800798775615e-05</v>
+        <v>2.361957161547319e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08351131301558928</v>
+        <v>0.08314821003074496</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>6.945167908</v>
       </c>
       <c r="B42" t="n">
-        <v>6.945167908</v>
+        <v>0.058868846</v>
       </c>
       <c r="C42" t="n">
-        <v>2.851229997166129e-06</v>
+        <v>2.873814076617127e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04318806094107731</v>
+        <v>0.04306303271761696</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>7.134083222</v>
       </c>
       <c r="B43" t="n">
-        <v>7.134083222</v>
+        <v>0.025675189</v>
       </c>
       <c r="C43" t="n">
-        <v>2.671576232124193e-07</v>
+        <v>2.698660987804623e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01758828160464264</v>
+        <v>0.01756304571703993</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>7.289755403</v>
       </c>
       <c r="B44" t="n">
-        <v>7.289755403</v>
+        <v>0.006215673</v>
       </c>
       <c r="C44" t="n">
-        <v>3.255033546267808e-08</v>
+        <v>3.294666336176745e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007089638854495414</v>
+        <v>0.00708782243225064</v>
       </c>
     </row>
   </sheetData>
@@ -1580,9 +1590,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chain_length</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>chain_length</t>
+          <t>original_population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1602,734 +1617,734 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>3.492084502</v>
       </c>
       <c r="B2" t="n">
-        <v>3.492084502</v>
+        <v>0.016109397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01248297361677281</v>
+        <v>0.01220203116712631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002331054898296732</v>
+        <v>0.0002733803227502091</v>
       </c>
       <c r="E2" t="n">
-        <v>9.685611631687728e-08</v>
+        <v>7.986052138351438e-08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>3.587301348</v>
       </c>
       <c r="B3" t="n">
-        <v>3.587301348</v>
+        <v>0.025128829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0215084648175119</v>
+        <v>0.02115162653306015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006683871036238403</v>
+        <v>0.0007712355734213891</v>
       </c>
       <c r="E3" t="n">
-        <v>2.634542691038903e-07</v>
+        <v>2.199181717979626e-07</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>3.685131625</v>
       </c>
       <c r="B4" t="n">
-        <v>3.685131625</v>
+        <v>0.037238333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03508239850337657</v>
+        <v>0.03461300380224494</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00182725274653225</v>
+        <v>0.002075487871495043</v>
       </c>
       <c r="E4" t="n">
-        <v>7.093858290212117e-07</v>
+        <v>5.994478280021631e-07</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3.785673142</v>
       </c>
       <c r="B5" t="n">
-        <v>3.785673142</v>
+        <v>0.056916278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05388430233924788</v>
+        <v>0.05317641574998209</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00473748310165653</v>
+        <v>0.005300019240731203</v>
       </c>
       <c r="E5" t="n">
-        <v>1.886849799495707e-06</v>
+        <v>1.613880845831382e-06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>3.889000831</v>
       </c>
       <c r="B6" t="n">
-        <v>3.889000831</v>
+        <v>0.08392978800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07748302599260797</v>
+        <v>0.07623409611707141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01157877298131363</v>
+        <v>0.01276666280455988</v>
       </c>
       <c r="E6" t="n">
-        <v>4.944841018282573e-06</v>
+        <v>4.280472215789665e-06</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>3.98892895</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98892895</v>
+        <v>0.126546527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1021357398701224</v>
+        <v>0.09987957214547401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02530677499770365</v>
+        <v>0.02754149996787482</v>
       </c>
       <c r="E7" t="n">
-        <v>1.205702332792375e-05</v>
+        <v>1.055394508525913e-05</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>4.083892277</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083892277</v>
+        <v>0.170822731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1240218422015137</v>
+        <v>0.120235785293935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04935653522923716</v>
+        <v>0.0531026933862197</v>
       </c>
       <c r="E8" t="n">
-        <v>2.710779429906132e-05</v>
+        <v>2.397083188708726e-05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>4.16354995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16354995</v>
+        <v>0.220039718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138648064492372</v>
+        <v>0.1331534315344832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08169523487883948</v>
+        <v>0.08711553959771699</v>
       </c>
       <c r="E9" t="n">
-        <v>5.202496480259286e-05</v>
+        <v>4.638392180122133e-05</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>4.222406411</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222406411</v>
+        <v>0.263767489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1460858792240188</v>
+        <v>0.1391453174050296</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1146941977619035</v>
+        <v>0.1215504539281425</v>
       </c>
       <c r="E10" t="n">
-        <v>8.286087392154044e-05</v>
+        <v>7.431232133378922e-05</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>4.280997339</v>
       </c>
       <c r="B11" t="n">
-        <v>4.280997339</v>
+        <v>0.312304118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1500241218524259</v>
+        <v>0.1415775103787868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1563515232761531</v>
+        <v>0.1647387299396657</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001299049209787386</v>
+        <v>0.0001171692800794079</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>4.339248645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.339248645</v>
+        <v>0.359522658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150220199638029</v>
+        <v>0.1403129087403411</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2069644890508398</v>
+        <v>0.2168857351673334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002003941670206694</v>
+        <v>0.0001817478050443321</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>4.386711948</v>
       </c>
       <c r="B13" t="n">
-        <v>4.386711948</v>
+        <v>0.406475922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1476186599353058</v>
+        <v>0.1366262719097419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2548571433927256</v>
+        <v>0.2659621036948946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002824497006838037</v>
+        <v>0.0002572932419541197</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>4.439983825</v>
       </c>
       <c r="B14" t="n">
-        <v>4.439983825</v>
+        <v>0.454036972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1419112665954233</v>
+        <v>0.1298925228966366</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3149995772855309</v>
+        <v>0.3272773923304542</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004107701701420223</v>
+        <v>0.0003759843462853865</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>4.484384749</v>
       </c>
       <c r="B15" t="n">
-        <v>4.484384749</v>
+        <v>0.5005422470000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1351409517664552</v>
+        <v>0.1224726222890077</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3692861928177582</v>
+        <v>0.3823543269540666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0005564433272627239</v>
+        <v>0.0005113120691846541</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>4.536891713</v>
       </c>
       <c r="B16" t="n">
-        <v>4.536891713</v>
+        <v>0.5553167020000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1251752410436831</v>
+        <v>0.1120272060881774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4365774921380867</v>
+        <v>0.4502956765628259</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0007886959489488532</v>
+        <v>0.0007279951988601798</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>4.578780171</v>
       </c>
       <c r="B17" t="n">
-        <v>4.578780171</v>
+        <v>0.597906605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1160471841710309</v>
+        <v>0.1027606822069986</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4910141004916206</v>
+        <v>0.5049951109236614</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001033579615022401</v>
+        <v>0.0009573767227359487</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>4.610049951</v>
       </c>
       <c r="B18" t="n">
-        <v>4.610049951</v>
+        <v>0.647781589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1087469076889997</v>
+        <v>0.09550173849171054</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5310811926987191</v>
+        <v>0.545099731454337</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001259014916132151</v>
+        <v>0.001169182046039649</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>4.656787657</v>
       </c>
       <c r="B19" t="n">
-        <v>4.656787657</v>
+        <v>0.694231884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09736261835480479</v>
+        <v>0.08440387130913948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5883806572692247</v>
+        <v>0.6021995322990111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001678616538508651</v>
+        <v>0.001564694931729883</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>4.710202477</v>
       </c>
       <c r="B20" t="n">
-        <v>4.710202477</v>
+        <v>0.740568734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08412491316001118</v>
+        <v>0.07179685454718786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6472786084759108</v>
+        <v>0.6605121537066971</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002307243289193881</v>
+        <v>0.002159626312339168</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>4.802088409</v>
       </c>
       <c r="B21" t="n">
-        <v>4.802088409</v>
+        <v>0.791422221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06227697125548776</v>
+        <v>0.05163291029906981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7225231189072691</v>
+        <v>0.7340222440076095</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003883167876070307</v>
+        <v>0.003659732851367789</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>4.932954832</v>
       </c>
       <c r="B22" t="n">
-        <v>4.932954832</v>
+        <v>0.7910997789999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03643873308189933</v>
+        <v>0.02885844095212249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7508163153900325</v>
+        <v>0.75905873949476</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007691119980324478</v>
+        <v>0.007314912743624194</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>5.029738645</v>
       </c>
       <c r="B23" t="n">
-        <v>5.029738645</v>
+        <v>0.74017062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02259822020293407</v>
+        <v>0.01724189685805973</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7064268475928966</v>
+        <v>0.7124014256888286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01220237290265313</v>
+        <v>0.01167815963566763</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>5.082683125</v>
       </c>
       <c r="B24" t="n">
-        <v>5.082683125</v>
+        <v>0.691887178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01689867431316473</v>
+        <v>0.01261729492147616</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6616489282844151</v>
+        <v>0.6665996638585521</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01546132676460253</v>
+        <v>0.01484506645242934</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>5.128429707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.128429707</v>
+        <v>0.644800888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01292850782958469</v>
+        <v>0.009467541839914504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6139077313155118</v>
+        <v>0.6181246730587511</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01880050568607734</v>
+        <v>0.01809985105685768</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>5.177876777</v>
       </c>
       <c r="B26" t="n">
-        <v>5.177876777</v>
+        <v>0.585847258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009512289784410396</v>
+        <v>0.006816312038280156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5554662685901453</v>
+        <v>0.5590458884829967</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02300869801329351</v>
+        <v>0.02221346084392187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>5.221338501</v>
       </c>
       <c r="B27" t="n">
-        <v>5.221338501</v>
+        <v>0.535096745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007156074887847451</v>
+        <v>0.005027854231476495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5004486774398521</v>
+        <v>0.5035891564861344</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02725868338504578</v>
+        <v>0.02637914845512995</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>5.262430596</v>
       </c>
       <c r="B28" t="n">
-        <v>5.262430596</v>
+        <v>0.489463842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00539796839549349</v>
+        <v>0.0037206020698295</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4471074895739395</v>
+        <v>0.4499203131797088</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03177606380270465</v>
+        <v>0.03081750597991805</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>5.305150301</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305150301</v>
+        <v>0.432090585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003973673195754132</v>
+        <v>0.002683356455417055</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3919402167177671</v>
+        <v>0.3944833668333442</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03700304186103608</v>
+        <v>0.03596487845335829</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>5.350427991</v>
       </c>
       <c r="B30" t="n">
-        <v>5.350427991</v>
+        <v>0.381468019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00283006320840785</v>
+        <v>0.001868889672914338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3354177475464639</v>
+        <v>0.3377319436077938</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04314098691556893</v>
+        <v>0.04202353514418188</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>5.395795165</v>
       </c>
       <c r="B31" t="n">
-        <v>5.395795165</v>
+        <v>0.336995572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001983863527050567</v>
+        <v>0.001280275695488215</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2822123892053902</v>
+        <v>0.284334443552497</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04990211192085745</v>
+        <v>0.04871295397827535</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>5.449445848</v>
       </c>
       <c r="B32" t="n">
-        <v>5.449445848</v>
+        <v>0.285141872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001278011461566564</v>
+        <v>0.0008019484282611465</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2251718669225559</v>
+        <v>0.2270907883272688</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05865425117831255</v>
+        <v>0.05739375827558411</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>5.52471583</v>
       </c>
       <c r="B33" t="n">
-        <v>5.52471583</v>
+        <v>0.230115719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0006653248031911367</v>
+        <v>0.0004007756923031247</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1577053748196149</v>
+        <v>0.1593491123779518</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0721722565811244</v>
+        <v>0.07084335885190006</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>5.619792562</v>
       </c>
       <c r="B34" t="n">
-        <v>5.619792562</v>
+        <v>0.182847422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002747574729754009</v>
+        <v>0.0001567866919807621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09417922203094499</v>
+        <v>0.09546507746166626</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09081118773839607</v>
+        <v>0.08946072330197585</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>5.754461082</v>
       </c>
       <c r="B35" t="n">
-        <v>5.754461082</v>
+        <v>0.153828142</v>
       </c>
       <c r="C35" t="n">
-        <v>7.003120708788693e-05</v>
+        <v>3.683518634148418e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04002589351202307</v>
+        <v>0.04081962163276158</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1182234715222204</v>
+        <v>0.1169795150285305</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>5.911352412</v>
       </c>
       <c r="B36" t="n">
-        <v>5.911352412</v>
+        <v>0.161441366</v>
       </c>
       <c r="C36" t="n">
-        <v>1.203059328925938e-05</v>
+        <v>5.713973660847816e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01226991867257122</v>
+        <v>0.01263110790221711</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1467652962931303</v>
+        <v>0.1458179577989566</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>6.072543295</v>
       </c>
       <c r="B37" t="n">
-        <v>6.072543295</v>
+        <v>0.171454995</v>
       </c>
       <c r="C37" t="n">
-        <v>1.629545214128847e-06</v>
+        <v>6.913808704754344e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002957814215258615</v>
+        <v>0.003082283517564071</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1654957159669097</v>
+        <v>0.1649314455242419</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>6.238002167</v>
       </c>
       <c r="B38" t="n">
-        <v>6.238002167</v>
+        <v>0.167952912</v>
       </c>
       <c r="C38" t="n">
-        <v>1.714564581809347e-07</v>
+        <v>6.424716194079805e-08</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0005515101411889819</v>
+        <v>0.0005835479842142761</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1681131840551459</v>
+        <v>0.167862752154154</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>6.407821735</v>
       </c>
       <c r="B39" t="n">
-        <v>6.407821735</v>
+        <v>0.149206467</v>
       </c>
       <c r="C39" t="n">
-        <v>1.377619068319857e-08</v>
+        <v>4.504099905314665e-09</v>
       </c>
       <c r="D39" t="n">
-        <v>7.809732177559905e-05</v>
+        <v>8.417772840321766e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.152534602236993</v>
+        <v>0.1524130535552129</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>6.582141818</v>
       </c>
       <c r="B40" t="n">
-        <v>6.582141818</v>
+        <v>0.118135556</v>
       </c>
       <c r="C40" t="n">
-        <v>8.295577576463575e-10</v>
+        <v>2.336037976640138e-10</v>
       </c>
       <c r="D40" t="n">
-        <v>8.233167797375342e-06</v>
+        <v>9.071680787086217e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1225032215547145</v>
+        <v>0.1223274697296421</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>6.761235438</v>
       </c>
       <c r="B41" t="n">
-        <v>6.761235438</v>
+        <v>0.090127848</v>
       </c>
       <c r="C41" t="n">
-        <v>3.661091849136775e-11</v>
+        <v>8.756778628840386e-12</v>
       </c>
       <c r="D41" t="n">
-        <v>6.313491044265472e-07</v>
+        <v>7.138265015681294e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08621732481379853</v>
+        <v>0.08591466686363854</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>6.945167908</v>
       </c>
       <c r="B42" t="n">
-        <v>6.945167908</v>
+        <v>0.058868846</v>
       </c>
       <c r="C42" t="n">
-        <v>1.160488453465395e-12</v>
+        <v>2.322983577949134e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>3.445405950810428e-08</v>
+        <v>4.013517339508005e-08</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05262450049248086</v>
+        <v>0.05224921875501337</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>7.134083222</v>
       </c>
       <c r="B43" t="n">
-        <v>7.134083222</v>
+        <v>0.025675189</v>
       </c>
       <c r="C43" t="n">
-        <v>2.582660225558744e-14</v>
+        <v>4.258810305238516e-15</v>
       </c>
       <c r="D43" t="n">
-        <v>1.306000431413574e-09</v>
+        <v>1.574263616640337e-09</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02754691385459024</v>
+        <v>0.02720522600879618</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>7.289755403</v>
       </c>
       <c r="B44" t="n">
-        <v>7.289755403</v>
+        <v>0.006215673</v>
       </c>
       <c r="C44" t="n">
-        <v>9.209582951529221e-16</v>
+        <v>1.283703214017805e-16</v>
       </c>
       <c r="D44" t="n">
-        <v>7.083945510586389e-11</v>
+        <v>8.806755927230928e-11</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01452263461542299</v>
+        <v>0.01426247285290485</v>
       </c>
     </row>
   </sheetData>
@@ -2352,9 +2367,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chain_length</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>chain_length</t>
+          <t>original_population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2379,863 +2399,863 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>3.492084502</v>
       </c>
       <c r="B2" t="n">
-        <v>3.492084502</v>
+        <v>0.016109397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01456850126060011</v>
+        <v>0.01263996454847969</v>
       </c>
       <c r="D2" t="n">
-        <v>2.623029370691963e-06</v>
+        <v>2.049238926077603e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>7.553968639729582e-19</v>
+        <v>1.944717596046896e-15</v>
       </c>
       <c r="F2" t="n">
-        <v>8.378182442371095e-28</v>
+        <v>6.363643206455714e-08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>3.587301348</v>
       </c>
       <c r="B3" t="n">
-        <v>3.587301348</v>
+        <v>0.025128829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02370011969758478</v>
+        <v>0.02150245131403749</v>
       </c>
       <c r="D3" t="n">
-        <v>1.204632148713423e-05</v>
+        <v>1.378085633276791e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.268146772845527e-17</v>
+        <v>5.797460901353178e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.796016691137874e-26</v>
+        <v>1.773870056790293e-07</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>3.685131625</v>
       </c>
       <c r="B4" t="n">
-        <v>3.685131625</v>
+        <v>0.037238333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03762504110883571</v>
+        <v>0.03549772246407179</v>
       </c>
       <c r="D4" t="n">
-        <v>5.164788718557617e-05</v>
+        <v>8.476137792579586e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.064914428788265e-16</v>
+        <v>1.553692443939188e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>9.200053263368178e-25</v>
+        <v>4.894335535077239e-07</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3.785673142</v>
       </c>
       <c r="B5" t="n">
-        <v>3.785673142</v>
+        <v>0.056916278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05813485343523485</v>
+        <v>0.05668893888011982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002051418862421305</v>
+        <v>4.72125922532085e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>3.241182144537141e-15</v>
+        <v>3.693921962127707e-11</v>
       </c>
       <c r="F5" t="n">
-        <v>2.967900120612687e-23</v>
+        <v>1.333776192141352e-06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>3.889000831</v>
       </c>
       <c r="B6" t="n">
-        <v>3.889000831</v>
+        <v>0.08392978800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08716237353248141</v>
+        <v>0.08726348416641132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0007483222887197327</v>
+        <v>0.000235511677070703</v>
       </c>
       <c r="E6" t="n">
-        <v>4.867965075068456e-14</v>
+        <v>7.673888358536615e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>9.320297607294547e-22</v>
+        <v>3.580556394498415e-06</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>3.98892895</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98892895</v>
+        <v>0.126546527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1238187585419598</v>
+        <v>0.1262348856116699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002322646330659571</v>
+        <v>0.00095694102426255</v>
       </c>
       <c r="E7" t="n">
-        <v>5.954654744329777e-13</v>
+        <v>1.16393799547754e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>2.320533353252443e-20</v>
+        <v>8.928665560711129e-06</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>4.083892277</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083892277</v>
+        <v>0.170822731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1665666830676562</v>
+        <v>0.1716266291337601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006114708954149399</v>
+        <v>0.003156887167957997</v>
       </c>
       <c r="E8" t="n">
-        <v>5.786141814416794e-12</v>
+        <v>1.268199699641669e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>4.419652523185475e-19</v>
+        <v>2.049161505670207e-05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>4.16354995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16354995</v>
+        <v>0.220039718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2077514602480347</v>
+        <v>0.2148954633187622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01269523216692132</v>
+        <v>0.007741110736563555</v>
       </c>
       <c r="E9" t="n">
-        <v>3.599358478674332e-11</v>
+        <v>8.116960612298636e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>4.826135743266625e-18</v>
+        <v>3.998916754672979e-05</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>4.222406411</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222406411</v>
+        <v>0.263767489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2406352266745258</v>
+        <v>0.2488936548731623</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02076474254810384</v>
+        <v>0.01412817418658631</v>
       </c>
       <c r="E10" t="n">
-        <v>1.325946852295701e-10</v>
+        <v>2.935198980143805e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>2.691539003686455e-17</v>
+        <v>6.446012614396092e-05</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>4.280997339</v>
       </c>
       <c r="B11" t="n">
-        <v>4.280997339</v>
+        <v>0.312304118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.274730744234222</v>
+        <v>0.2834376172222812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03254991795132382</v>
+        <v>0.02442244066643283</v>
       </c>
       <c r="E11" t="n">
-        <v>4.668627113987445e-10</v>
+        <v>9.812163147564969e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>1.430745307025131e-16</v>
+        <v>0.0001022427940124411</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>4.339248645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.339248645</v>
+        <v>0.359522658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3091774956988809</v>
+        <v>0.31739192489035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04890285330260867</v>
+        <v>0.03999059721320377</v>
       </c>
       <c r="E12" t="n">
-        <v>1.569592832664357e-09</v>
+        <v>3.031101942166582e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>7.238306550446908e-16</v>
+        <v>0.0001595172003643546</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>4.386711948</v>
       </c>
       <c r="B13" t="n">
-        <v>4.386711948</v>
+        <v>0.406475922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3370140532269357</v>
+        <v>0.3439455253120948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0661636363510523</v>
+        <v>0.05756114421627553</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0964153773674e-09</v>
+        <v>7.205760753627304e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>2.63377599490873e-15</v>
+        <v>0.000226871300620319</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>4.439983825</v>
       </c>
       <c r="B14" t="n">
-        <v>4.439983825</v>
+        <v>0.454036972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3672884724622648</v>
+        <v>0.3716651911209878</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09001714230705768</v>
+        <v>0.08321255818960953</v>
       </c>
       <c r="E14" t="n">
-        <v>1.16596264956287e-08</v>
+        <v>0.0001799459920562995</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087786133359147e-14</v>
+        <v>0.0003332248358737942</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>4.484384749</v>
       </c>
       <c r="B15" t="n">
-        <v>4.484384749</v>
+        <v>0.5005422470000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3911805479676744</v>
+        <v>0.3924301050103459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1134326756591804</v>
+        <v>0.1095159434574484</v>
       </c>
       <c r="E15" t="n">
-        <v>2.71989021623566e-08</v>
+        <v>0.0003685566809373967</v>
       </c>
       <c r="F15" t="n">
-        <v>3.458797441098837e-14</v>
+        <v>0.0004550576586057946</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>4.536891713</v>
       </c>
       <c r="B16" t="n">
-        <v>4.536891713</v>
+        <v>0.5553167020000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4171793171284375</v>
+        <v>0.413491256140071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1447251185579509</v>
+        <v>0.1458745569449174</v>
       </c>
       <c r="E16" t="n">
-        <v>7.193590375042273e-08</v>
+        <v>0.0008153518548926984</v>
       </c>
       <c r="F16" t="n">
-        <v>1.318573486268189e-13</v>
+        <v>0.0006510466335265475</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>4.578780171</v>
       </c>
       <c r="B17" t="n">
-        <v>4.578780171</v>
+        <v>0.597906605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4356936019872004</v>
+        <v>0.4270954677532828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1717503905870167</v>
+        <v>0.1780048577212689</v>
       </c>
       <c r="E17" t="n">
-        <v>1.527928344836241e-07</v>
+        <v>0.001473302327082037</v>
       </c>
       <c r="F17" t="n">
-        <v>3.747242793961149e-13</v>
+        <v>0.000859434559594195</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>4.610049951</v>
       </c>
       <c r="B18" t="n">
-        <v>4.610049951</v>
+        <v>0.647781589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4479930674377489</v>
+        <v>0.4351854145390165</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1925687115108779</v>
+        <v>0.2030119506944173</v>
       </c>
       <c r="E18" t="n">
-        <v>2.646349223900135e-07</v>
+        <v>0.002236651747768043</v>
       </c>
       <c r="F18" t="n">
-        <v>8.063468534816607e-13</v>
+        <v>0.001052501872839229</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>4.656787657</v>
       </c>
       <c r="B19" t="n">
-        <v>4.656787657</v>
+        <v>0.694231884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4636326548849895</v>
+        <v>0.4437280704409275</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2236563908048182</v>
+        <v>0.2404268047779206</v>
       </c>
       <c r="E19" t="n">
-        <v>5.890317834807118e-07</v>
+        <v>0.004016506977320961</v>
       </c>
       <c r="F19" t="n">
-        <v>2.48143481323873e-12</v>
+        <v>0.001414331095970533</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>4.710202477</v>
       </c>
       <c r="B20" t="n">
-        <v>4.710202477</v>
+        <v>0.740568734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4770430159696106</v>
+        <v>0.448002953720162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2571928513101386</v>
+        <v>0.2802362981286982</v>
       </c>
       <c r="E20" t="n">
-        <v>1.425586738188825e-06</v>
+        <v>0.007410660035490533</v>
       </c>
       <c r="F20" t="n">
-        <v>8.690487624945321e-12</v>
+        <v>0.001961067190921298</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>4.802088409</v>
       </c>
       <c r="B21" t="n">
-        <v>4.802088409</v>
+        <v>0.791422221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4878197956637313</v>
+        <v>0.4413220298603019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3024740556102842</v>
+        <v>0.3300116567028145</v>
       </c>
       <c r="E21" t="n">
-        <v>6.041840056956839e-06</v>
+        <v>0.01845638224293725</v>
       </c>
       <c r="F21" t="n">
-        <v>6.942867321706296e-11</v>
+        <v>0.003348762611475883</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>4.932954832</v>
       </c>
       <c r="B22" t="n">
-        <v>4.932954832</v>
+        <v>0.7910997789999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.475059681985261</v>
+        <v>0.4032507060134318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.321268484839159</v>
+        <v>0.334781444411312</v>
       </c>
       <c r="E22" t="n">
-        <v>3.999837081205056e-05</v>
+        <v>0.04973887592253299</v>
       </c>
       <c r="F22" t="n">
-        <v>1.1294861795035e-09</v>
+        <v>0.006763039344170109</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>5.029738645</v>
       </c>
       <c r="B23" t="n">
-        <v>5.029738645</v>
+        <v>0.74017062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4457493355672427</v>
+        <v>0.3581042372400298</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2952587428561962</v>
+        <v>0.2868445194419466</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000142702577188216</v>
+        <v>0.08202411801152228</v>
       </c>
       <c r="F23" t="n">
-        <v>7.812694015435478e-09</v>
+        <v>0.01087572042350798</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>5.082683125</v>
       </c>
       <c r="B24" t="n">
-        <v>5.082683125</v>
+        <v>0.691887178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4237142204276838</v>
+        <v>0.329362048860571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2691455478766723</v>
+        <v>0.248385569807088</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00027348315970012</v>
+        <v>0.09917041405110209</v>
       </c>
       <c r="F24" t="n">
-        <v>2.148531122786921e-08</v>
+        <v>0.01387798019254104</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>5.128429707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.128429707</v>
+        <v>0.644800888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4019072660815783</v>
+        <v>0.3031438656560777</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2419682801413603</v>
+        <v>0.2120356486487968</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0004675360860611458</v>
+        <v>0.1113995422808889</v>
       </c>
       <c r="F25" t="n">
-        <v>5.015220860783572e-08</v>
+        <v>0.0169753170405231</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>5.177876777</v>
       </c>
       <c r="B26" t="n">
-        <v>5.177876777</v>
+        <v>0.585847258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3760386939781546</v>
+        <v>0.2740842053807511</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2098073460771446</v>
+        <v>0.1725082487738368</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0008125547651315766</v>
+        <v>0.1201864696871388</v>
       </c>
       <c r="F26" t="n">
-        <v>1.219739154648926e-07</v>
+        <v>0.02090419964990134</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>5.221338501</v>
       </c>
       <c r="B27" t="n">
-        <v>5.221338501</v>
+        <v>0.535096745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3518260982825576</v>
+        <v>0.24847162981861</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1807640689848628</v>
+        <v>0.1396083944464099</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001290655533134515</v>
+        <v>0.1231103890182277</v>
       </c>
       <c r="F27" t="n">
-        <v>2.601779465459842e-07</v>
+        <v>0.02489670498554939</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>5.262430596</v>
       </c>
       <c r="B28" t="n">
-        <v>5.262430596</v>
+        <v>0.489463842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3280805938020855</v>
+        <v>0.2246106812658016</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1538495869103282</v>
+        <v>0.1113558750505986</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001959683406939986</v>
+        <v>0.1213976271236069</v>
       </c>
       <c r="F28" t="n">
-        <v>5.218120424404363e-07</v>
+        <v>0.0291639126681037</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>5.305150301</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305150301</v>
+        <v>0.432090585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3029144604679986</v>
+        <v>0.200528662967567</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1274097673320098</v>
+        <v>0.08569783321377858</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002963856170388864</v>
+        <v>0.1151977097463706</v>
       </c>
       <c r="F29" t="n">
-        <v>1.053509331706216e-06</v>
+        <v>0.0341280758659078</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>5.350427991</v>
       </c>
       <c r="B30" t="n">
-        <v>5.350427991</v>
+        <v>0.381468019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2761354145476396</v>
+        <v>0.1761523025099536</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1019233716575891</v>
+        <v>0.06301523848064115</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00449154357564359</v>
+        <v>0.1044765339567738</v>
       </c>
       <c r="F30" t="n">
-        <v>2.167288057792701e-06</v>
+        <v>0.03998986200419283</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>5.395795165</v>
       </c>
       <c r="B31" t="n">
-        <v>5.395795165</v>
+        <v>0.336995572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2496155393125006</v>
+        <v>0.1532049470114321</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0795602530971633</v>
+        <v>0.04490250923333567</v>
       </c>
       <c r="E31" t="n">
-        <v>0.006653988825341935</v>
+        <v>0.09070403691079559</v>
       </c>
       <c r="F31" t="n">
-        <v>4.35885783838287e-06</v>
+        <v>0.0464831510833608</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>5.449445848</v>
       </c>
       <c r="B32" t="n">
-        <v>5.449445848</v>
+        <v>0.285141872</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2191788590497702</v>
+        <v>0.1282752988590853</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05753966830734489</v>
+        <v>0.02890212565332158</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01027414739699282</v>
+        <v>0.07254896027853172</v>
       </c>
       <c r="F32" t="n">
-        <v>9.654902333438182e-06</v>
+        <v>0.05493956031849256</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>5.52471583</v>
       </c>
       <c r="B33" t="n">
-        <v>5.52471583</v>
+        <v>0.230115719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1791172948622424</v>
+        <v>0.09772008447423539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03450277932495339</v>
+        <v>0.0144842625511648</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01787904260167496</v>
+        <v>0.0478620314216885</v>
       </c>
       <c r="F33" t="n">
-        <v>2.783930007680867e-05</v>
+        <v>0.06810258539378403</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>5.619792562</v>
       </c>
       <c r="B34" t="n">
-        <v>5.619792562</v>
+        <v>0.182847422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1343805434641366</v>
+        <v>0.06670015723123918</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01644783258166618</v>
+        <v>0.005360290221342785</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03281312849933639</v>
+        <v>0.0238477146768871</v>
       </c>
       <c r="F34" t="n">
-        <v>9.648691055649488e-05</v>
+        <v>0.0864364641364781</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>5.754461082</v>
       </c>
       <c r="B35" t="n">
-        <v>5.754461082</v>
+        <v>0.153828142</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0840780434657953</v>
+        <v>0.03609798886450927</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00480514740219825</v>
+        <v>0.001039898700700567</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06497623693809007</v>
+        <v>0.006409833559067339</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0004682837671459472</v>
+        <v>0.1137743152925696</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>5.911352412</v>
       </c>
       <c r="B36" t="n">
-        <v>5.911352412</v>
+        <v>0.161441366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04442998749458741</v>
+        <v>0.01584672454207169</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000876594286605519</v>
+        <v>0.0001092344202075943</v>
       </c>
       <c r="E36" t="n">
-        <v>0.110883119484623</v>
+        <v>0.0008551448045078531</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002257434185026202</v>
+        <v>0.1427987504177771</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>6.072543295</v>
       </c>
       <c r="B37" t="n">
-        <v>6.072543295</v>
+        <v>0.171454995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02082229960638375</v>
+        <v>0.006026023670545286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001130478256551437</v>
+        <v>7.345183916721627e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1432365526960854</v>
+        <v>6.278038764546238e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008418979693507547</v>
+        <v>0.1625058558583107</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>6.238002167</v>
       </c>
       <c r="B38" t="n">
-        <v>6.238002167</v>
+        <v>0.167952912</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008584300997941552</v>
+        <v>0.001966037611939848</v>
       </c>
       <c r="D38" t="n">
-        <v>1.006322226610653e-05</v>
+        <v>3.066649409893864e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1367771652354086</v>
+        <v>2.428839321735924e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02370345205714725</v>
+        <v>0.166269156436595</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>6.407821735</v>
       </c>
       <c r="B39" t="n">
-        <v>6.407821735</v>
+        <v>0.149206467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003085084626236595</v>
+        <v>0.0005444498164330451</v>
       </c>
       <c r="D39" t="n">
-        <v>6.022005653313816e-07</v>
+        <v>7.684677789097499e-09</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09421035352888633</v>
+        <v>4.723909740346203e-08</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04916391131872343</v>
+        <v>0.1516275537200452</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>6.582141818</v>
       </c>
       <c r="B40" t="n">
-        <v>6.582141818</v>
+        <v>0.118135556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0009570300555094875</v>
+        <v>0.0001264853160602096</v>
       </c>
       <c r="D40" t="n">
-        <v>2.353882275805451e-08</v>
+        <v>1.113958966802801e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04560006503372175</v>
+        <v>4.389228765709159e-10</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07320813313368417</v>
+        <v>0.1221099240932817</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>6.761235438</v>
       </c>
       <c r="B41" t="n">
-        <v>6.761235438</v>
+        <v>0.090127848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002533191125596442</v>
+        <v>2.431479963426675e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>5.811969200993216e-10</v>
+        <v>8.947845163265991e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01506864270272055</v>
+        <v>1.837359679659188e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07612028848243541</v>
+        <v>0.0859609731830227</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>6.945167908</v>
       </c>
       <c r="B42" t="n">
-        <v>6.945167908</v>
+        <v>0.058868846</v>
       </c>
       <c r="C42" t="n">
-        <v>5.65973007695937e-05</v>
+        <v>3.818500110365939e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>8.782864133920289e-12</v>
+        <v>3.824680089912037e-15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003299336756494609</v>
+        <v>3.274419313890399e-15</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05362425234644004</v>
+        <v>0.05233787880826284</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>7.134083222</v>
       </c>
       <c r="B43" t="n">
-        <v>7.134083222</v>
+        <v>0.025675189</v>
       </c>
       <c r="C43" t="n">
-        <v>1.054603115595332e-05</v>
+        <v>4.829688668414804e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>7.843555553705802e-14</v>
+        <v>8.317588080167399e-18</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0004634990703673111</v>
+        <v>2.334338427788102e-18</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02478897258866942</v>
+        <v>0.02724855156366116</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>7.289755403</v>
       </c>
       <c r="B44" t="n">
-        <v>7.289755403</v>
+        <v>0.006215673</v>
       </c>
       <c r="C44" t="n">
-        <v>2.372345739681536e-06</v>
+        <v>7.743959316327323e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>1.173717194713044e-15</v>
+        <v>3.558845542677715e-20</v>
       </c>
       <c r="E44" t="n">
-        <v>6.768523185372765e-05</v>
+        <v>3.377846473336017e-21</v>
       </c>
       <c r="F44" t="n">
-        <v>0.009592283083104667</v>
+        <v>0.01426991181967183</v>
       </c>
     </row>
   </sheetData>
@@ -3258,9 +3278,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chain_length</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>chain_length</t>
+          <t>original_population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3290,992 +3315,992 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>3.492084502</v>
       </c>
       <c r="B2" t="n">
-        <v>3.492084502</v>
+        <v>0.016109397</v>
       </c>
       <c r="C2" t="n">
-        <v>1.094738191522739e-06</v>
+        <v>4.363678999827681e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01726973607892981</v>
+        <v>0.01683406664493254</v>
       </c>
       <c r="E2" t="n">
-        <v>7.744238363815341e-05</v>
+        <v>4.353527869173516e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>3.066883263229864e-15</v>
+        <v>9.000709782412854e-16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.108293470018963e-36</v>
+        <v>2.416252623732824e-38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>3.587301348</v>
       </c>
       <c r="B3" t="n">
-        <v>3.587301348</v>
+        <v>0.025128829</v>
       </c>
       <c r="C3" t="n">
-        <v>1.291335988112518e-05</v>
+        <v>1.024270374792478e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02573135127449229</v>
+        <v>0.02562438149478806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002466600250296157</v>
+        <v>0.0001475305415954907</v>
       </c>
       <c r="F3" t="n">
-        <v>2.778574810804201e-14</v>
+        <v>8.823500187012319e-15</v>
       </c>
       <c r="G3" t="n">
-        <v>1.953078548177491e-34</v>
+        <v>2.862484361703528e-36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>3.685131625</v>
       </c>
       <c r="B4" t="n">
-        <v>3.685131625</v>
+        <v>0.037238333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000113643407871361</v>
+        <v>1.665735452591512e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03756186085721558</v>
+        <v>0.03818055826474749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007448285649287986</v>
+        <v>0.0004726888705717319</v>
       </c>
       <c r="F4" t="n">
-        <v>2.461172352303889e-13</v>
+        <v>8.452272881263477e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1.783413304497823e-32</v>
+        <v>3.340989263045158e-34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>3.785673142</v>
       </c>
       <c r="B5" t="n">
-        <v>3.785673142</v>
+        <v>0.056916278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007257779950783158</v>
+        <v>0.0001812726993235352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05360113210269982</v>
+        <v>0.05555799029861294</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002119682995275066</v>
+        <v>0.001423009190819531</v>
       </c>
       <c r="F5" t="n">
-        <v>2.121377976453543e-12</v>
+        <v>7.873594760957823e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>1.594049482376605e-30</v>
+        <v>3.81380416949794e-32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>3.889000831</v>
       </c>
       <c r="B6" t="n">
-        <v>3.889000831</v>
+        <v>0.08392978800000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003263336370854253</v>
+        <v>0.00127076940882603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07458644535210621</v>
+        <v>0.07874684600821936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005647213258558359</v>
+        <v>0.003996868255799829</v>
       </c>
       <c r="F6" t="n">
-        <v>1.769209341293672e-11</v>
+        <v>7.090735610363487e-12</v>
       </c>
       <c r="G6" t="n">
-        <v>1.382398020167533e-28</v>
+        <v>4.218519943756613e-30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>3.98892895</v>
       </c>
       <c r="B7" t="n">
-        <v>3.98892895</v>
+        <v>0.126546527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009475026405383518</v>
+        <v>0.005130062446374426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09925439738632821</v>
+        <v>0.1065060657541042</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01329335116410194</v>
+        <v>0.009854741507614898</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25844984056844e-10</v>
+        <v>5.416929301949902e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>8.916892068080713e-27</v>
+        <v>3.416275294089213e-28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>4.083892277</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083892277</v>
+        <v>0.170822731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01832303396234264</v>
+        <v>0.01238868091834251</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1262705619040629</v>
+        <v>0.1374049811254989</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02758870153754709</v>
+        <v>0.02128051947142004</v>
       </c>
       <c r="F8" t="n">
-        <v>7.485256807541804e-10</v>
+        <v>3.439106932968996e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>4.08183058725542e-25</v>
+        <v>1.927596537463539e-26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>4.16354995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.16354995</v>
+        <v>0.220039718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02442767194907019</v>
+        <v>0.01858345864895439</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1509916688162029</v>
+        <v>0.1660657109548679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04780678937100483</v>
+        <v>0.03800015105994979</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1419440387992e-09</v>
+        <v>1.521722039318552e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>9.109111306716643e-24</v>
+        <v>5.09923563036267e-25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>4.222406411</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222406411</v>
+        <v>0.263767489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02585464664183648</v>
+        <v>0.02061618270037268</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1699950571400405</v>
+        <v>0.1883242880759112</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06917365962279021</v>
+        <v>0.05611054944679977</v>
       </c>
       <c r="F10" t="n">
-        <v>8.748511324576435e-09</v>
+        <v>4.400338338947239e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>8.509906427783468e-23</v>
+        <v>5.384869847660837e-24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>4.280997339</v>
       </c>
       <c r="B11" t="n">
-        <v>4.280997339</v>
+        <v>0.312304118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02398886703633757</v>
+        <v>0.0193780830862982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1891103722648392</v>
+        <v>0.2109025369195631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09687167990312638</v>
+        <v>0.08005123012690113</v>
       </c>
       <c r="F11" t="n">
-        <v>2.352441608594034e-08</v>
+        <v>1.227401765937094e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>7.48249274904381e-22</v>
+        <v>5.334974541798039e-23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>4.339248645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.339248645</v>
+        <v>0.359522658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01955322811065334</v>
+        <v>0.01547309726728702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2078779641215811</v>
+        <v>0.2332515881341944</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1313049253521102</v>
+        <v>0.1103518504489102</v>
       </c>
       <c r="F12" t="n">
-        <v>6.103970291411892e-08</v>
+        <v>3.299770040535671e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>6.179962686742566e-21</v>
+        <v>4.94850417352018e-22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>4.386711948</v>
       </c>
       <c r="B13" t="n">
-        <v>4.386711948</v>
+        <v>0.406475922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01504025782586718</v>
+        <v>0.01141847592938594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2226721350120162</v>
+        <v>0.2509987211210885</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1644678206093926</v>
+        <v>0.1399712678613077</v>
       </c>
       <c r="F13" t="n">
-        <v>1.298471463171336e-07</v>
+        <v>7.220121309974615e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>3.327408735814017e-20</v>
+        <v>2.922985142325763e-21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>4.439983825</v>
       </c>
       <c r="B14" t="n">
-        <v>4.439983825</v>
+        <v>0.454036972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01011198791846772</v>
+        <v>0.007136988630835075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2383965139593813</v>
+        <v>0.2699959231107862</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2067017973706254</v>
+        <v>0.1781899124325908</v>
       </c>
       <c r="F14" t="n">
-        <v>2.958833021650543e-07</v>
+        <v>1.696836407955435e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>2.116335160866069e-19</v>
+        <v>2.058578899549883e-20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>4.484384749</v>
       </c>
       <c r="B15" t="n">
-        <v>4.484384749</v>
+        <v>0.5005422470000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006685903541563566</v>
+        <v>0.004346837710977277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2505334741811346</v>
+        <v>0.2847649843272539</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2452382418576665</v>
+        <v>0.2134700281672331</v>
       </c>
       <c r="F15" t="n">
-        <v>5.767153542639044e-07</v>
+        <v>3.391470079548167e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>9.581489091754232e-19</v>
+        <v>1.01294528795332e-19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>4.536891713</v>
       </c>
       <c r="B16" t="n">
-        <v>4.536891713</v>
+        <v>0.5553167020000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003719445929774299</v>
+        <v>0.002140150392598226</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2634464234178849</v>
+        <v>0.3006008486790545</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2933764946451308</v>
+        <v>0.2580086080705796</v>
       </c>
       <c r="F16" t="n">
-        <v>1.241645719494684e-06</v>
+        <v>7.516369146225488e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>5.505368224040501e-18</v>
+        <v>6.410110102386978e-19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>4.578780171</v>
       </c>
       <c r="B17" t="n">
-        <v>4.578780171</v>
+        <v>0.597906605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002160257664636567</v>
+        <v>0.001105870922158963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2724256024243785</v>
+        <v>0.3117095844831678</v>
       </c>
       <c r="E17" t="n">
-        <v>0.332491644436865</v>
+        <v>0.2945405362336531</v>
       </c>
       <c r="F17" t="n">
-        <v>2.249732326050692e-06</v>
+        <v>1.392951923255765e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>2.157561996425705e-17</v>
+        <v>2.709140407843312e-18</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>4.610049951</v>
       </c>
       <c r="B18" t="n">
-        <v>4.610049951</v>
+        <v>0.647781589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001378408362916007</v>
+        <v>0.0006394279714987261</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2782664264013117</v>
+        <v>0.3189956850895934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3613089635032408</v>
+        <v>0.3216367203895413</v>
       </c>
       <c r="F18" t="n">
-        <v>3.471024966494084e-06</v>
+        <v>2.184910317625132e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>5.881305570274126e-17</v>
+        <v>7.806174068004281e-18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>4.656787657</v>
       </c>
       <c r="B19" t="n">
-        <v>4.656787657</v>
+        <v>0.694231884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006568847107318224</v>
+        <v>0.0002583237716763761</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2854938048652694</v>
+        <v>0.3281147676051583</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4024349093241772</v>
+        <v>0.3605651025656983</v>
       </c>
       <c r="F19" t="n">
-        <v>6.530977981684901e-06</v>
+        <v>4.211594406012503e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.563214533269175e-16</v>
+        <v>3.691120227435098e-17</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>4.710202477</v>
       </c>
       <c r="B20" t="n">
-        <v>4.710202477</v>
+        <v>0.740568734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000254240211479471</v>
+        <v>8.063117021737273e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2913789734569067</v>
+        <v>0.3357140727623915</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4443532229144169</v>
+        <v>0.4005648611979301</v>
       </c>
       <c r="F20" t="n">
-        <v>1.313708309547662e-05</v>
+        <v>8.702184879844817e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>1.325461242706232e-15</v>
+        <v>2.090821778384169e-16</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>4.802088409</v>
       </c>
       <c r="B21" t="n">
-        <v>4.802088409</v>
+        <v>0.791422221</v>
       </c>
       <c r="C21" t="n">
-        <v>3.849041061063948e-05</v>
+        <v>7.895675667923685e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2951586523739918</v>
+        <v>0.3411752798622388</v>
       </c>
       <c r="E21" t="n">
-        <v>0.496155639401734</v>
+        <v>0.450580470588277</v>
       </c>
       <c r="F21" t="n">
-        <v>4.122136627617199e-05</v>
+        <v>2.854216304032185e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>2.029126920768522e-14</v>
+        <v>3.724926406669702e-15</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>4.932954832</v>
       </c>
       <c r="B22" t="n">
-        <v>4.932954832</v>
+        <v>0.7910997789999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.499211607767683e-06</v>
+        <v>1.432602432605862e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2863947304015079</v>
+        <v>0.3318267990241148</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5090457130900543</v>
+        <v>0.4639955484720571</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0001848177893624921</v>
+        <v>0.0001357385271415466</v>
       </c>
       <c r="G22" t="n">
-        <v>7.979124191183631e-13</v>
+        <v>1.797662128816003e-13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>5.029738645</v>
       </c>
       <c r="B23" t="n">
-        <v>5.029738645</v>
+        <v>0.74017062</v>
       </c>
       <c r="C23" t="n">
-        <v>8.927234611972687e-08</v>
+        <v>4.350512217023262e-09</v>
       </c>
       <c r="D23" t="n">
-        <v>0.270000386971757</v>
+        <v>0.3128413290359044</v>
       </c>
       <c r="E23" t="n">
-        <v>0.46974507152513</v>
+        <v>0.427130320183761</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0005088285802723826</v>
+        <v>0.0003891339270933343</v>
       </c>
       <c r="G23" t="n">
-        <v>1.025693628986419e-11</v>
+        <v>2.66613585484575e-12</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>5.082683125</v>
       </c>
       <c r="B24" t="n">
-        <v>5.082683125</v>
+        <v>0.691887178</v>
       </c>
       <c r="C24" t="n">
-        <v>1.639704708190756e-08</v>
+        <v>5.317130541294627e-10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2580073909066934</v>
+        <v>0.2987661306581035</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4337652791529963</v>
+        <v>0.3931572701592372</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0008551292020762202</v>
+        <v>0.0006678520362343608</v>
       </c>
       <c r="G24" t="n">
-        <v>3.912302264785142e-11</v>
+        <v>1.096364087613723e-11</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>5.128429707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.128429707</v>
+        <v>0.644800888</v>
       </c>
       <c r="C25" t="n">
-        <v>3.478744457919048e-09</v>
+        <v>7.759403867225384e-11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.246218384335566</v>
+        <v>0.2848669558207885</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3967472902438732</v>
+        <v>0.3582346001817922</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001312853412190717</v>
+        <v>0.00104343844584039</v>
       </c>
       <c r="G25" t="n">
-        <v>1.203378455752254e-10</v>
+        <v>3.592451382329507e-11</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>5.177876777</v>
       </c>
       <c r="B26" t="n">
-        <v>5.177876777</v>
+        <v>0.585847258</v>
       </c>
       <c r="C26" t="n">
-        <v>5.950748411469823e-10</v>
+        <v>8.655057833778092e-12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2322548500451982</v>
+        <v>0.2683608840217803</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3527155936689519</v>
+        <v>0.3168157198451103</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002043949275766673</v>
+        <v>0.001654424775680076</v>
       </c>
       <c r="G26" t="n">
-        <v>3.915891520155406e-10</v>
+        <v>1.249463923377271e-10</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>5.221338501</v>
       </c>
       <c r="B27" t="n">
-        <v>5.221338501</v>
+        <v>0.535096745</v>
       </c>
       <c r="C27" t="n">
-        <v>1.166953113350033e-10</v>
+        <v>1.142606001790893e-12</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2191597209279134</v>
+        <v>0.2528600562138211</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3123306289547414</v>
+        <v>0.2789901174048115</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002963052074374231</v>
+        <v>0.002435755436284253</v>
       </c>
       <c r="G27" t="n">
-        <v>1.072388666292154e-09</v>
+        <v>3.622252204682897e-10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>5.262430596</v>
       </c>
       <c r="B28" t="n">
-        <v>5.262430596</v>
+        <v>0.489463842</v>
       </c>
       <c r="C28" t="n">
-        <v>2.340416280831556e-11</v>
+        <v>1.549629200513007e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2062625771149072</v>
+        <v>0.2375867651887649</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2740829391651037</v>
+        <v>0.2433469042301382</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004145518111110424</v>
+        <v>0.003456287513231416</v>
       </c>
       <c r="G28" t="n">
-        <v>2.709796957179743e-09</v>
+        <v>9.646497600625561e-10</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>5.305150301</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305150301</v>
+        <v>0.432090585</v>
       </c>
       <c r="C29" t="n">
-        <v>4.113384031677355e-12</v>
+        <v>1.781748099117561e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1925084839576921</v>
+        <v>0.2213016303622666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2354469947720735</v>
+        <v>0.207557148013221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005785696759703639</v>
+        <v>0.004892662988385244</v>
       </c>
       <c r="G29" t="n">
-        <v>6.919057665765368e-09</v>
+        <v>2.597727311265305e-09</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>5.350427991</v>
       </c>
       <c r="B30" t="n">
-        <v>5.350427991</v>
+        <v>0.381468019</v>
       </c>
       <c r="C30" t="n">
-        <v>6.037339058450827e-13</v>
+        <v>1.635527601745656e-15</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1777484939947113</v>
+        <v>0.2038389103854617</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1968580288490804</v>
+        <v>0.172070732187062</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008094513919191</v>
+        <v>0.006944831183178056</v>
       </c>
       <c r="G30" t="n">
-        <v>1.814787106748383e-08</v>
+        <v>7.197914553404683e-09</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>5.395795165</v>
       </c>
       <c r="B31" t="n">
-        <v>5.395795165</v>
+        <v>0.336995572</v>
       </c>
       <c r="C31" t="n">
-        <v>8.160886230468518e-14</v>
+        <v>1.353712262688995e-16</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1629754750949875</v>
+        <v>0.1863840878944491</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1615135873646912</v>
+        <v>0.1398447384820559</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01112907039849482</v>
+        <v>0.009682099298890228</v>
       </c>
       <c r="G31" t="n">
-        <v>4.627168370968041e-08</v>
+        <v>1.935945713867313e-08</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>5.449445848</v>
       </c>
       <c r="B32" t="n">
-        <v>5.449445848</v>
+        <v>0.285141872</v>
       </c>
       <c r="C32" t="n">
-        <v>6.916385342988411e-15</v>
+        <v>6.257485371382788e-18</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1457872812846041</v>
+        <v>0.1661169905953134</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1247880221092419</v>
+        <v>0.1067088423665423</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01584256746051963</v>
+        <v>0.01400072813930059</v>
       </c>
       <c r="G32" t="n">
-        <v>1.346109970336615e-07</v>
+        <v>5.986959788087796e-08</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>5.52471583</v>
       </c>
       <c r="B33" t="n">
-        <v>5.52471583</v>
+        <v>0.230115719</v>
       </c>
       <c r="C33" t="n">
-        <v>1.801426666182779e-16</v>
+        <v>6.638186460140866e-20</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122687741551499</v>
+        <v>0.1389741530226896</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08317513667471302</v>
+        <v>0.069733788241958</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02491480267391082</v>
+        <v>0.0224772709646156</v>
       </c>
       <c r="G33" t="n">
-        <v>5.607569959693501e-07</v>
+        <v>2.707265004446023e-07</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>5.619792562</v>
       </c>
       <c r="B34" t="n">
-        <v>5.619792562</v>
+        <v>0.182847422</v>
       </c>
       <c r="C34" t="n">
-        <v>1.318671263734799e-18</v>
+        <v>1.442882620839763e-22</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09604314010707492</v>
+        <v>0.1078490888124296</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04631779229539993</v>
+        <v>0.03773227991683643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04110497617771665</v>
+        <v>0.03797513977179841</v>
       </c>
       <c r="G34" t="n">
-        <v>3.019099513758847e-06</v>
+        <v>1.606731332084852e-06</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>5.754461082</v>
       </c>
       <c r="B35" t="n">
-        <v>5.754461082</v>
+        <v>0.153828142</v>
       </c>
       <c r="C35" t="n">
-        <v>6.899037397046209e-22</v>
+        <v>1.161048436066899e-26</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06449068159840522</v>
+        <v>0.07135821459530525</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01758170674694123</v>
+        <v>0.01365185465983408</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07290823100062185</v>
+        <v>0.06935640084519609</v>
       </c>
       <c r="G35" t="n">
-        <v>2.610596207259653e-05</v>
+        <v>1.576097330272378e-05</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>5.911352412</v>
       </c>
       <c r="B36" t="n">
-        <v>5.911352412</v>
+        <v>0.161441366</v>
       </c>
       <c r="C36" t="n">
-        <v>4.330731766173076e-26</v>
+        <v>6.571996356391806e-32</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03757799174381658</v>
+        <v>0.04072635502211489</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004628116515621559</v>
+        <v>0.003362042716257333</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1162388796537806</v>
+        <v>0.1136679119282021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002303017507705114</v>
+        <v>0.0001582493495378141</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>6.072543295</v>
       </c>
       <c r="B37" t="n">
-        <v>6.072543295</v>
+        <v>0.171454995</v>
       </c>
       <c r="C37" t="n">
-        <v>7.832893084876777e-31</v>
+        <v>7.797530241772708e-38</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01981054865318368</v>
+        <v>0.02093411574890646</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0009321593785680443</v>
+        <v>0.000624802049423641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1498095223362776</v>
+        <v>0.1496111749581565</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001479886213577919</v>
+        <v>0.001138881884502787</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>6.238002167</v>
       </c>
       <c r="B38" t="n">
-        <v>6.238002167</v>
+        <v>0.167952912</v>
       </c>
       <c r="C38" t="n">
-        <v>3.779547025637623e-36</v>
+        <v>1.760268938517559e-44</v>
       </c>
       <c r="D38" t="n">
-        <v>0.009385273949734029</v>
+        <v>0.00962286933587385</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001410408572575146</v>
+        <v>8.594496653959542e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1532518078789509</v>
+        <v>0.1551930939837896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006716775565086617</v>
+        <v>0.00568750557810931</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>6.407821735</v>
       </c>
       <c r="B39" t="n">
-        <v>6.407821735</v>
+        <v>0.149206467</v>
       </c>
       <c r="C39" t="n">
-        <v>4.452505760391568e-42</v>
+        <v>6.763263868878088e-52</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003965590790542981</v>
+        <v>0.003924608759302874</v>
       </c>
       <c r="E39" t="n">
-        <v>1.57080674709752e-05</v>
+        <v>8.565089504515712e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1221159955597886</v>
+        <v>0.1244297839682245</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02088328553084828</v>
+        <v>0.01908470728010055</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>6.582141818</v>
       </c>
       <c r="B40" t="n">
-        <v>6.582141818</v>
+        <v>0.118135556</v>
       </c>
       <c r="C40" t="n">
-        <v>1.161667758084926e-48</v>
+        <v>3.912759063081805e-60</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001482206078441436</v>
+        <v>0.001407971997577702</v>
       </c>
       <c r="E40" t="n">
-        <v>1.259501721690224e-06</v>
+        <v>6.041604480223322e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07429051326009478</v>
+        <v>0.07553292812318795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04306699457161504</v>
+        <v>0.04159560603235161</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>6.761235438</v>
       </c>
       <c r="B41" t="n">
-        <v>6.761235438</v>
+        <v>0.090127848</v>
       </c>
       <c r="C41" t="n">
-        <v>5.974673423552691e-56</v>
+        <v>2.9447173524676e-69</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004853707066759577</v>
+        <v>0.0004398759894951407</v>
       </c>
       <c r="E41" t="n">
-        <v>7.085280948565881e-08</v>
+        <v>2.935515061294857e-08</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03375055085049094</v>
+        <v>0.03393125976256304</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05691315688665285</v>
+        <v>0.05678741193892184</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>6.945167908</v>
       </c>
       <c r="B42" t="n">
-        <v>6.945167908</v>
+        <v>0.058868846</v>
       </c>
       <c r="C42" t="n">
-        <v>5.455102487613079e-64</v>
+        <v>2.527175453131847e-79</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001380047398890541</v>
+        <v>0.0001185534886107517</v>
       </c>
       <c r="E42" t="n">
-        <v>2.729168327154673e-09</v>
+        <v>9.576599430659784e-10</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01118983603617882</v>
+        <v>0.01101547434631807</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04640579750661242</v>
+        <v>0.04666740917473019</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>7.134083222</v>
       </c>
       <c r="B43" t="n">
-        <v>7.134083222</v>
+        <v>0.025675189</v>
       </c>
       <c r="C43" t="n">
-        <v>7.857644454783992e-73</v>
+        <v>2.132230849820983e-90</v>
       </c>
       <c r="D43" t="n">
-        <v>3.373071076481758e-05</v>
+        <v>2.727724605824976e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>7.006464259265453e-11</v>
+        <v>2.038943095662431e-11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002641383921604225</v>
+        <v>0.002519263667401791</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02243173278965221</v>
+        <v>0.02213461770866317</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>7.289755403</v>
       </c>
       <c r="B44" t="n">
-        <v>7.289755403</v>
+        <v>0.006215673</v>
       </c>
       <c r="C44" t="n">
-        <v>1.461148707464844e-80</v>
+        <v>4.407109933720003e-100</v>
       </c>
       <c r="D44" t="n">
-        <v>9.662023043158149e-06</v>
+        <v>7.402936139740138e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>2.690529234449919e-12</v>
+        <v>6.626852664381265e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0006348970590303228</v>
+        <v>0.0005854804649853959</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008310121552538727</v>
+        <v>0.007908650539038654</v>
       </c>
     </row>
   </sheetData>
